--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results.csv/H/Angle/f30RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results.csv/H/Angle/f30RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Simulator_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results.csv\H\Angle\f30RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF2E99-5F74-4C4F-A503-9FF52C08F645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE34416-5163-41C7-A881-93261FE13DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9413" xr2:uid="{05CEE3F9-4FCC-49D8-8666-5741CACFF3C2}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9413" xr2:uid="{BC959840-4CB9-42E2-B710-43CA60DE128F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08162CB-93A3-4849-98B7-1B982DDC4A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFC15EA-8EE5-4CD5-8740-8C7555845735}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
